--- a/LopHoc.xlsx
+++ b/LopHoc.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -43,13 +43,79 @@
     <t>Gia Sư</t>
   </si>
   <si>
+    <t>Phạm Trình Tin</t>
+  </si>
+  <si>
+    <t>012332145</t>
+  </si>
+  <si>
+    <t>82 Nguyễn Lương Bằng Liên Chiểu Đà Nẵng</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Thứ 3 ,Thứ 5 ,Thứ 7 ,</t>
+  </si>
+  <si>
+    <t>Lớp 12</t>
+  </si>
+  <si>
+    <t>Toán</t>
+  </si>
+  <si>
+    <t>Buổi tối</t>
+  </si>
+  <si>
+    <t>"60b34d255c26881f14076a5f"</t>
+  </si>
+  <si>
+    <t>Hoàng Minh Mập</t>
+  </si>
+  <si>
+    <t>098321123</t>
+  </si>
+  <si>
+    <t>01 Hoàng Diệu Hải Châu Đà Nẵng</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Thứ 4 ,Thứ 6 ,</t>
+  </si>
+  <si>
+    <t>Lớp 11</t>
+  </si>
+  <si>
+    <t>Vật Lý</t>
+  </si>
+  <si>
+    <t>Buổi sáng</t>
+  </si>
+  <si>
+    <t>Lê Phương</t>
+  </si>
+  <si>
+    <t>01234893101</t>
+  </si>
+  <si>
+    <t>12 Đỗ Đức Dục Thanh Khê Đà Nẵng</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Thứ 2 ,Thứ 3 ,Thứ 4 ,Thứ 5 ,Thứ 6 ,Thứ 7 ,</t>
+  </si>
+  <si>
+    <t>Âm Nhạc</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>{"formula":0}</t>
   </si>
 </sst>
 </file>
@@ -430,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
@@ -470,15 +536,111 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <f>3</f>
       </c>
     </row>
   </sheetData>

--- a/LopHoc.xlsx
+++ b/LopHoc.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -43,79 +43,13 @@
     <t>Gia Sư</t>
   </si>
   <si>
-    <t>Phạm Trình Tin</t>
-  </si>
-  <si>
-    <t>012332145</t>
-  </si>
-  <si>
-    <t>82 Nguyễn Lương Bằng Liên Chiểu Đà Nẵng</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Thứ 3 ,Thứ 5 ,Thứ 7 ,</t>
-  </si>
-  <si>
-    <t>Lớp 12</t>
-  </si>
-  <si>
-    <t>Toán</t>
-  </si>
-  <si>
-    <t>Buổi tối</t>
-  </si>
-  <si>
-    <t>"60b34d255c26881f14076a5f"</t>
-  </si>
-  <si>
-    <t>Hoàng Minh Mập</t>
-  </si>
-  <si>
-    <t>098321123</t>
-  </si>
-  <si>
-    <t>01 Hoàng Diệu Hải Châu Đà Nẵng</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Thứ 4 ,Thứ 6 ,</t>
-  </si>
-  <si>
-    <t>Lớp 11</t>
-  </si>
-  <si>
-    <t>Vật Lý</t>
-  </si>
-  <si>
-    <t>Buổi sáng</t>
-  </si>
-  <si>
-    <t>Lê Phương</t>
-  </si>
-  <si>
-    <t>01234893101</t>
-  </si>
-  <si>
-    <t>12 Đỗ Đức Dục Thanh Khê Đà Nẵng</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Thứ 2 ,Thứ 3 ,Thứ 4 ,Thứ 5 ,Thứ 6 ,Thứ 7 ,</t>
-  </si>
-  <si>
-    <t>Âm Nhạc</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>{"formula":0}</t>
   </si>
 </sst>
 </file>
@@ -496,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
@@ -536,111 +470,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5">
-        <f>3</f>
       </c>
     </row>
   </sheetData>
